--- a/biology/Botanique/Joseph_Bonnaire/Joseph_Bonnaire.xlsx
+++ b/biology/Botanique/Joseph_Bonnaire/Joseph_Bonnaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,20 +490,22 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Bonnaire, né le 9 août 1842 à Saint-Chef dans l'Isère et mort le 4 août 1910 à Monplaisir (Lyon), est un horticulteur et rosiériste français. Sa pépinière se trouvait 6 chemin des Hérideaux dans la banlieue lyonnaise de Monplaisir[1].
-Joseph Bonnaire arrive à Lyon en 1860 en apprentissage chez Damaizin, spécialisé dans les roses. Il travaille ensuite chez Claude Ducher, reste quelque temps à Paris avant de retourner à Lyon[2], puis il ouvre sa propre pépinière en 1878[3].
-Lyon est alors au faîte de sa renommée et compte nombre de rosiéristes qui exportent dans l'Europe entière. Bonnaire fait sensation avec de nouveaux hybrides de thé qui commençaient à détrôner les hybrides remontants[4], et toujours avec des rosiers thé, comme 'Souvenir de Victor Hugo', variété consacrée par exemple à l'exposition de Dresde[5] comme la plus belle des nouveautés. Il crée surtout des variétés au tons pastel et raffinés. Sa rose 'Madame Joseph Bonnaire', dédiée à son épouse, est toujours présente dans les catalogues internationaux contemporains.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Bonnaire, né le 9 août 1842 à Saint-Chef dans l'Isère et mort le 4 août 1910 à Monplaisir (Lyon), est un horticulteur et rosiériste français. Sa pépinière se trouvait 6 chemin des Hérideaux dans la banlieue lyonnaise de Monplaisir.
+Joseph Bonnaire arrive à Lyon en 1860 en apprentissage chez Damaizin, spécialisé dans les roses. Il travaille ensuite chez Claude Ducher, reste quelque temps à Paris avant de retourner à Lyon, puis il ouvre sa propre pépinière en 1878.
+Lyon est alors au faîte de sa renommée et compte nombre de rosiéristes qui exportent dans l'Europe entière. Bonnaire fait sensation avec de nouveaux hybrides de thé qui commençaient à détrôner les hybrides remontants, et toujours avec des rosiers thé, comme 'Souvenir de Victor Hugo', variété consacrée par exemple à l'exposition de Dresde comme la plus belle des nouveautés. Il crée surtout des variétés au tons pastel et raffinés. Sa rose 'Madame Joseph Bonnaire', dédiée à son épouse, est toujours présente dans les catalogues internationaux contemporains.
 Parmi la quarantaine de ses créations, l'on peut distinguer:
 'Souvenir de Victor Hugo' (rosier thé, 1884)
-'Docteur Grill' (hybride de thé, 1884)[6]
-'Madame Ernest Piard' (hybride de thé, 1887)[7]
-'Mademoiselle Jeanne Guillaumez' (rosier thé, 1889)[8]
+'Docteur Grill' (hybride de thé, 1884)
+'Madame Ernest Piard' (hybride de thé, 1887)
+'Mademoiselle Jeanne Guillaumez' (rosier thé, 1889)
 'Souvenir d'Auguste Legros' (rosier thé, 1889)
 'Elisa Fugier' (rosier thé, 1890)
-'Madame Joseph Bonnaire' (hybride thé, 1891)[9]
-Mademoiselle Joséphine Marot (hybride de thé, 1894)[10]
+'Madame Joseph Bonnaire' (hybride thé, 1891)
+Mademoiselle Joséphine Marot (hybride de thé, 1894)
 			'Joséphine Marot' (1894)
 			'Mademoiselle Jeanne Guillaumez' (1889)
 			'Souvenir de Victor Hugo' (1884)
